--- a/output/MEPSEstimates_NYC.xlsx
+++ b/output/MEPSEstimates_NYC.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20356"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bz22\Desktop\SARS2NYC\output\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ben\Desktop\California_Covid\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ADC44C4-F2F4-42BE-A160-6E679C89E0FB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEEC6D78-8B7D-4408-A87C-E17D31287EB7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11925" activeTab="2" xr2:uid="{166FA296-704A-41F0-B032-40C925A3086C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{166FA296-704A-41F0-B032-40C925A3086C}"/>
   </bookViews>
   <sheets>
     <sheet name="MEPSAdjustments" sheetId="1" r:id="rId1"/>
@@ -18,10 +18,15 @@
     <sheet name="GrandTotals" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -333,7 +338,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -355,21 +360,6 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
@@ -378,6 +368,22 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -695,7 +701,7 @@
   <dimension ref="A1:M87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13:I21"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -709,17 +715,17 @@
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="7"/>
       <c r="B1" s="8"/>
-      <c r="C1" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="22"/>
+      <c r="C1" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="32"/>
       <c r="G1" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="H1" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="I1" s="22"/>
+      <c r="H1" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="32"/>
       <c r="J1" s="20"/>
       <c r="K1" s="20"/>
       <c r="L1" s="20"/>
@@ -742,7 +748,7 @@
       <c r="H2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="26" t="s">
+      <c r="I2" s="21" t="s">
         <v>2</v>
       </c>
       <c r="J2" s="20"/>
@@ -762,7 +768,7 @@
       <c r="I3" s="11"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="29" t="s">
         <v>26</v>
       </c>
       <c r="B4" s="5" t="s">
@@ -785,7 +791,7 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="23"/>
+      <c r="A5" s="29"/>
       <c r="B5" s="5" t="s">
         <v>11</v>
       </c>
@@ -806,7 +812,7 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="23"/>
+      <c r="A6" s="29"/>
       <c r="B6" s="5" t="s">
         <v>12</v>
       </c>
@@ -827,7 +833,7 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="23"/>
+      <c r="A7" s="29"/>
       <c r="B7" s="5" t="s">
         <v>13</v>
       </c>
@@ -848,7 +854,7 @@
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="23"/>
+      <c r="A8" s="29"/>
       <c r="B8" s="5" t="s">
         <v>14</v>
       </c>
@@ -873,18 +879,18 @@
       <c r="B9" s="2"/>
       <c r="C9" s="3"/>
       <c r="D9" s="4"/>
-      <c r="G9" s="27" t="s">
+      <c r="G9" s="22" t="s">
         <v>34</v>
       </c>
       <c r="H9" s="9">
         <v>0.78511708183430717</v>
       </c>
-      <c r="I9" s="28">
+      <c r="I9" s="23">
         <v>0.75836489438790999</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="23" t="s">
+      <c r="A10" s="29" t="s">
         <v>28</v>
       </c>
       <c r="B10" s="5" t="s">
@@ -898,7 +904,7 @@
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="23"/>
+      <c r="A11" s="29"/>
       <c r="B11" s="5" t="s">
         <v>11</v>
       </c>
@@ -910,7 +916,7 @@
       </c>
     </row>
     <row r="12" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="23"/>
+      <c r="A12" s="29"/>
       <c r="B12" s="5" t="s">
         <v>12</v>
       </c>
@@ -922,7 +928,7 @@
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="23"/>
+      <c r="A13" s="29"/>
       <c r="B13" s="5" t="s">
         <v>13</v>
       </c>
@@ -935,13 +941,13 @@
       <c r="G13" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H13" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="I13" s="22"/>
+      <c r="H13" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="I13" s="32"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="23"/>
+      <c r="A14" s="29"/>
       <c r="B14" s="5" t="s">
         <v>14</v>
       </c>
@@ -955,7 +961,7 @@
       <c r="H14" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="I14" s="26" t="s">
+      <c r="I14" s="21" t="s">
         <v>2</v>
       </c>
     </row>
@@ -971,7 +977,7 @@
       <c r="I15" s="11"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="23" t="s">
+      <c r="A16" s="29" t="s">
         <v>23</v>
       </c>
       <c r="B16" s="5" t="s">
@@ -994,7 +1000,7 @@
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="23"/>
+      <c r="A17" s="29"/>
       <c r="B17" s="5" t="s">
         <v>11</v>
       </c>
@@ -1015,7 +1021,7 @@
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="23"/>
+      <c r="A18" s="29"/>
       <c r="B18" s="5" t="s">
         <v>12</v>
       </c>
@@ -1036,7 +1042,7 @@
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="23"/>
+      <c r="A19" s="29"/>
       <c r="B19" s="5" t="s">
         <v>13</v>
       </c>
@@ -1057,7 +1063,7 @@
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="23"/>
+      <c r="A20" s="29"/>
       <c r="B20" s="5" t="s">
         <v>14</v>
       </c>
@@ -1082,18 +1088,18 @@
       <c r="B21" s="2"/>
       <c r="C21" s="3"/>
       <c r="D21" s="4"/>
-      <c r="G21" s="27" t="s">
+      <c r="G21" s="22" t="s">
         <v>34</v>
       </c>
       <c r="H21" s="9">
         <v>0.73473363188391849</v>
       </c>
-      <c r="I21" s="28">
+      <c r="I21" s="23">
         <v>0.89793898482393109</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="23" t="s">
+      <c r="A22" s="29" t="s">
         <v>24</v>
       </c>
       <c r="B22" s="5" t="s">
@@ -1107,7 +1113,7 @@
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="23"/>
+      <c r="A23" s="29"/>
       <c r="B23" s="5" t="s">
         <v>11</v>
       </c>
@@ -1119,7 +1125,7 @@
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="23"/>
+      <c r="A24" s="29"/>
       <c r="B24" s="5" t="s">
         <v>12</v>
       </c>
@@ -1131,7 +1137,7 @@
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="23"/>
+      <c r="A25" s="29"/>
       <c r="B25" s="5" t="s">
         <v>13</v>
       </c>
@@ -1143,7 +1149,7 @@
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="23"/>
+      <c r="A26" s="29"/>
       <c r="B26" s="5" t="s">
         <v>14</v>
       </c>
@@ -1161,7 +1167,7 @@
       <c r="D27" s="4"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="23" t="s">
+      <c r="A28" s="29" t="s">
         <v>36</v>
       </c>
       <c r="B28" s="5" t="s">
@@ -1175,7 +1181,7 @@
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="23"/>
+      <c r="A29" s="29"/>
       <c r="B29" s="5" t="s">
         <v>11</v>
       </c>
@@ -1187,7 +1193,7 @@
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="23"/>
+      <c r="A30" s="29"/>
       <c r="B30" s="5" t="s">
         <v>12</v>
       </c>
@@ -1199,7 +1205,7 @@
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="23"/>
+      <c r="A31" s="29"/>
       <c r="B31" s="5" t="s">
         <v>13</v>
       </c>
@@ -1211,7 +1217,7 @@
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="23"/>
+      <c r="A32" s="29"/>
       <c r="B32" s="5" t="s">
         <v>14</v>
       </c>
@@ -1229,7 +1235,7 @@
       <c r="D33" s="4"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="23" t="s">
+      <c r="A34" s="29" t="s">
         <v>16</v>
       </c>
       <c r="B34" s="5" t="s">
@@ -1243,7 +1249,7 @@
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="23"/>
+      <c r="A35" s="29"/>
       <c r="B35" s="5" t="s">
         <v>11</v>
       </c>
@@ -1255,7 +1261,7 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="23"/>
+      <c r="A36" s="29"/>
       <c r="B36" s="5" t="s">
         <v>12</v>
       </c>
@@ -1267,7 +1273,7 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="23"/>
+      <c r="A37" s="29"/>
       <c r="B37" s="5" t="s">
         <v>13</v>
       </c>
@@ -1279,7 +1285,7 @@
       </c>
     </row>
     <row r="38" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="24"/>
+      <c r="A38" s="30"/>
       <c r="B38" s="9" t="s">
         <v>14</v>
       </c>
@@ -1504,10 +1510,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10F9A5E2-0774-4A32-8F94-CB1FABBAE853}">
-  <dimension ref="A1:S45"/>
+  <dimension ref="A1:T45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:H45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J45" sqref="J45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1517,32 +1523,32 @@
     <col min="13" max="13" width="49.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
       <c r="B2" s="8"/>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21" t="s">
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="21"/>
-      <c r="H2" s="22"/>
-      <c r="N2" s="25" t="s">
+      <c r="G2" s="31"/>
+      <c r="H2" s="32"/>
+      <c r="N2" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="O2" s="25"/>
-      <c r="P2" s="25"/>
-      <c r="Q2" s="25" t="s">
+      <c r="O2" s="33"/>
+      <c r="P2" s="33"/>
+      <c r="Q2" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="R2" s="25"/>
-      <c r="S2" s="25"/>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="R2" s="33"/>
+      <c r="S2" s="33"/>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>3</v>
       </c>
@@ -1589,8 +1595,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="23" t="s">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" s="29" t="s">
         <v>26</v>
       </c>
       <c r="B4" s="5" t="s">
@@ -1614,17 +1620,17 @@
       <c r="H4" s="11">
         <v>2783</v>
       </c>
-      <c r="N4" s="25" t="s">
+      <c r="N4" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="O4" s="25"/>
-      <c r="P4" s="25"/>
-      <c r="Q4" s="25"/>
-      <c r="R4" s="25"/>
-      <c r="S4" s="25"/>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="23"/>
+      <c r="O4" s="33"/>
+      <c r="P4" s="33"/>
+      <c r="Q4" s="33"/>
+      <c r="R4" s="33"/>
+      <c r="S4" s="33"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" s="29"/>
       <c r="B5" s="5" t="s">
         <v>13</v>
       </c>
@@ -1668,8 +1674,8 @@
         <v>1243.0060902872949</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="23"/>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" s="29"/>
       <c r="B6" s="5" t="s">
         <v>11</v>
       </c>
@@ -1713,8 +1719,8 @@
         <v>137290.98011156273</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="23"/>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" s="29"/>
       <c r="B7" s="5" t="s">
         <v>14</v>
       </c>
@@ -1758,8 +1764,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="23"/>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" s="29"/>
       <c r="B8" s="5" t="s">
         <v>12</v>
       </c>
@@ -1803,8 +1809,8 @@
         <v>101425.0771055739</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="23"/>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" s="29"/>
       <c r="B9" s="5" t="s">
         <v>10</v>
       </c>
@@ -1848,35 +1854,40 @@
         <v>1280.8280977116569</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="23"/>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" s="29"/>
       <c r="B10" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="29">
+      <c r="C10" s="24">
         <f t="shared" ref="C10:H10" si="0">SUM(C5:C9)</f>
         <v>25194.443894278917</v>
       </c>
-      <c r="D10" s="29">
+      <c r="D10" s="24">
         <f t="shared" si="0"/>
         <v>3602.4289153852046</v>
       </c>
-      <c r="E10" s="29">
+      <c r="E10" s="24">
         <f t="shared" si="0"/>
         <v>691.18116935556577</v>
       </c>
-      <c r="F10" s="29">
+      <c r="F10" s="24">
         <f t="shared" si="0"/>
         <v>17533.193235552815</v>
       </c>
-      <c r="G10" s="29">
+      <c r="G10" s="24">
         <f t="shared" si="0"/>
         <v>2720.7495720956067</v>
       </c>
-      <c r="H10" s="30">
+      <c r="H10" s="25">
         <f t="shared" si="0"/>
         <v>1243.3544758068717</v>
       </c>
+      <c r="I10" s="18">
+        <f>SUM(C10:H10)</f>
+        <v>50985.351262474986</v>
+      </c>
+      <c r="J10" s="18"/>
       <c r="M10" s="17" t="s">
         <v>34</v>
       </c>
@@ -1898,9 +1909,13 @@
       <c r="S10" s="18">
         <v>45.315184226276301</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="23" t="s">
+      <c r="T10" s="18">
+        <f>SUM(N5:S10)</f>
+        <v>1451489.5466780681</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" s="29" t="s">
         <v>28</v>
       </c>
       <c r="B11" s="5" t="s">
@@ -1924,17 +1939,17 @@
       <c r="H11" s="11">
         <v>189949</v>
       </c>
-      <c r="N11" s="25" t="s">
+      <c r="N11" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="O11" s="25"/>
-      <c r="P11" s="25"/>
-      <c r="Q11" s="25"/>
-      <c r="R11" s="25"/>
-      <c r="S11" s="25"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="23"/>
+      <c r="O11" s="33"/>
+      <c r="P11" s="33"/>
+      <c r="Q11" s="33"/>
+      <c r="R11" s="33"/>
+      <c r="S11" s="33"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" s="29"/>
       <c r="B12" s="5" t="s">
         <v>13</v>
       </c>
@@ -1978,8 +1993,8 @@
         <v>247.24342416705667</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="23"/>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13" s="29"/>
       <c r="B13" s="5" t="s">
         <v>11</v>
       </c>
@@ -2023,8 +2038,8 @@
         <v>57161.92384154813</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="23"/>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14" s="29"/>
       <c r="B14" s="5" t="s">
         <v>14</v>
       </c>
@@ -2068,8 +2083,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="23"/>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15" s="29"/>
       <c r="B15" s="5" t="s">
         <v>12</v>
       </c>
@@ -2113,8 +2128,8 @@
         <v>14109.027193840109</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" s="23"/>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16" s="29"/>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
@@ -2159,34 +2174,38 @@
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17" s="23"/>
+      <c r="A17" s="29"/>
       <c r="B17" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="29">
+      <c r="C17" s="24">
         <f t="shared" ref="C17:H17" si="1">SUM(C12:C16)</f>
         <v>23784.275358673447</v>
       </c>
-      <c r="D17" s="29">
+      <c r="D17" s="24">
         <f t="shared" si="1"/>
         <v>258890.03974318758</v>
       </c>
-      <c r="E17" s="29">
+      <c r="E17" s="24">
         <f t="shared" si="1"/>
         <v>194386.3814752269</v>
       </c>
-      <c r="F17" s="29">
+      <c r="F17" s="24">
         <f t="shared" si="1"/>
         <v>25637.515929260109</v>
       </c>
-      <c r="G17" s="29">
+      <c r="G17" s="24">
         <f t="shared" si="1"/>
         <v>253239.51205063122</v>
       </c>
-      <c r="H17" s="30">
+      <c r="H17" s="25">
         <f t="shared" si="1"/>
         <v>231472.04488297939</v>
       </c>
+      <c r="I17" s="18">
+        <f>SUM(C17:H17)</f>
+        <v>987409.76943995862</v>
+      </c>
       <c r="M17" s="17" t="s">
         <v>34</v>
       </c>
@@ -2210,7 +2229,7 @@
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18" s="23" t="s">
+      <c r="A18" s="29" t="s">
         <v>15</v>
       </c>
       <c r="B18" s="5" t="s">
@@ -2230,7 +2249,7 @@
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="23"/>
+      <c r="A19" s="29"/>
       <c r="B19" s="5" t="s">
         <v>13</v>
       </c>
@@ -2254,7 +2273,7 @@
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" s="23"/>
+      <c r="A20" s="29"/>
       <c r="B20" s="5" t="s">
         <v>11</v>
       </c>
@@ -2278,7 +2297,7 @@
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21" s="23"/>
+      <c r="A21" s="29"/>
       <c r="B21" s="5" t="s">
         <v>14</v>
       </c>
@@ -2302,7 +2321,7 @@
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A22" s="23"/>
+      <c r="A22" s="29"/>
       <c r="B22" s="5" t="s">
         <v>12</v>
       </c>
@@ -2326,7 +2345,7 @@
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A23" s="23"/>
+      <c r="A23" s="29"/>
       <c r="B23" s="5" t="s">
         <v>10</v>
       </c>
@@ -2350,37 +2369,41 @@
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A24" s="23"/>
+      <c r="A24" s="29"/>
       <c r="B24" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C24" s="29">
+      <c r="C24" s="24">
         <f t="shared" ref="C24:H24" si="2">SUM(C18:C23)</f>
         <v>300623.91359999997</v>
       </c>
-      <c r="D24" s="29">
+      <c r="D24" s="24">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E24" s="29">
+      <c r="E24" s="24">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F24" s="29">
+      <c r="F24" s="24">
         <f t="shared" si="2"/>
         <v>387133.37640000007</v>
       </c>
-      <c r="G24" s="29">
+      <c r="G24" s="24">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H24" s="30">
+      <c r="H24" s="25">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
+      <c r="I24" s="18">
+        <f>SUM(C24:H24)</f>
+        <v>687757.29</v>
+      </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A25" s="23" t="s">
+      <c r="A25" s="29" t="s">
         <v>35</v>
       </c>
       <c r="B25" s="5" t="s">
@@ -2406,7 +2429,7 @@
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A26" s="23"/>
+      <c r="A26" s="29"/>
       <c r="B26" s="5" t="s">
         <v>13</v>
       </c>
@@ -2430,7 +2453,7 @@
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A27" s="23"/>
+      <c r="A27" s="29"/>
       <c r="B27" s="5" t="s">
         <v>11</v>
       </c>
@@ -2454,7 +2477,7 @@
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A28" s="23"/>
+      <c r="A28" s="29"/>
       <c r="B28" s="5" t="s">
         <v>14</v>
       </c>
@@ -2478,7 +2501,7 @@
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A29" s="23"/>
+      <c r="A29" s="29"/>
       <c r="B29" s="5" t="s">
         <v>12</v>
       </c>
@@ -2502,7 +2525,7 @@
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A30" s="23"/>
+      <c r="A30" s="29"/>
       <c r="B30" s="5" t="s">
         <v>10</v>
       </c>
@@ -2526,37 +2549,41 @@
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A31" s="23"/>
+      <c r="A31" s="29"/>
       <c r="B31" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C31" s="29">
+      <c r="C31" s="24">
         <f t="shared" ref="C31:H31" si="3">SUM(C26:C30)</f>
         <v>39948.922501677851</v>
       </c>
-      <c r="D31" s="29">
+      <c r="D31" s="24">
         <f t="shared" si="3"/>
         <v>152399.21789517626</v>
       </c>
-      <c r="E31" s="29">
+      <c r="E31" s="24">
         <f t="shared" si="3"/>
         <v>130739.42996418453</v>
       </c>
-      <c r="F31" s="29">
+      <c r="F31" s="24">
         <f t="shared" si="3"/>
         <v>32506.385586654222</v>
       </c>
-      <c r="G31" s="29">
+      <c r="G31" s="24">
         <f t="shared" si="3"/>
         <v>145042.46235577922</v>
       </c>
-      <c r="H31" s="30">
+      <c r="H31" s="25">
         <f t="shared" si="3"/>
         <v>175821.81137660713</v>
       </c>
+      <c r="I31" s="18">
+        <f>SUM(C31:H31)</f>
+        <v>676458.22968007927</v>
+      </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A32" s="23" t="s">
+      <c r="A32" s="29" t="s">
         <v>33</v>
       </c>
       <c r="B32" s="5" t="s">
@@ -2581,8 +2608,8 @@
         <v>3835</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="23"/>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="29"/>
       <c r="B33" s="5" t="s">
         <v>13</v>
       </c>
@@ -2605,8 +2632,8 @@
         <v>156.92340573767569</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="23"/>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="29"/>
       <c r="B34" s="5" t="s">
         <v>11</v>
       </c>
@@ -2629,8 +2656,8 @@
         <v>811.86818956408274</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="23"/>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="29"/>
       <c r="B35" s="5" t="s">
         <v>14</v>
       </c>
@@ -2653,8 +2680,8 @@
         <v>1.7089469264306052</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="23"/>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="29"/>
       <c r="B36" s="5" t="s">
         <v>12</v>
       </c>
@@ -2677,8 +2704,8 @@
         <v>427.50274481262704</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="23"/>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="29"/>
       <c r="B37" s="5" t="s">
         <v>10</v>
       </c>
@@ -2701,38 +2728,38 @@
         <v>290.62777085945271</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="23"/>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="29"/>
       <c r="B38" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C38" s="29">
+      <c r="C38" s="24">
         <f t="shared" ref="C38:H38" si="4">SUM(C33:C37)</f>
         <v>172780.92040775483</v>
       </c>
-      <c r="D38" s="29">
+      <c r="D38" s="24">
         <f t="shared" si="4"/>
         <v>14303.663024699066</v>
       </c>
-      <c r="E38" s="29">
+      <c r="E38" s="24">
         <f t="shared" si="4"/>
         <v>1415.1338628867356</v>
       </c>
-      <c r="F38" s="29">
+      <c r="F38" s="24">
         <f t="shared" si="4"/>
         <v>133411.6117272788</v>
       </c>
-      <c r="G38" s="29">
+      <c r="G38" s="24">
         <f t="shared" si="4"/>
         <v>10077.202496187932</v>
       </c>
-      <c r="H38" s="30">
+      <c r="H38" s="25">
         <f t="shared" si="4"/>
         <v>1688.6310579002688</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="23" t="s">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="29" t="s">
         <v>34</v>
       </c>
       <c r="B39" s="5" t="s">
@@ -2757,8 +2784,8 @@
         <v>109</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="23"/>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="29"/>
       <c r="B40" s="5" t="s">
         <v>13</v>
       </c>
@@ -2781,8 +2808,8 @@
         <v>5.2590192099563229</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="23"/>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" s="29"/>
       <c r="B41" s="5" t="s">
         <v>11</v>
       </c>
@@ -2805,8 +2832,8 @@
         <v>32.097822831769996</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="23"/>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" s="29"/>
       <c r="B42" s="5" t="s">
         <v>14</v>
       </c>
@@ -2829,8 +2856,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="23"/>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" s="29"/>
       <c r="B43" s="5" t="s">
         <v>12</v>
       </c>
@@ -2853,8 +2880,8 @@
         <v>10.363275896744522</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="23"/>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" s="29"/>
       <c r="B44" s="5" t="s">
         <v>10</v>
       </c>
@@ -2877,53 +2904,58 @@
         <v>19.454073922162905</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="24"/>
+    <row r="45" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="30"/>
       <c r="B45" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C45" s="31">
+      <c r="C45" s="26">
         <f t="shared" ref="C45:H45" si="5">SUM(C40:C44)</f>
         <v>1184.2636645171467</v>
       </c>
-      <c r="D45" s="31">
+      <c r="D45" s="26">
         <f t="shared" si="5"/>
         <v>120.10655023304327</v>
       </c>
-      <c r="E45" s="31">
+      <c r="E45" s="26">
         <f t="shared" si="5"/>
         <v>49.848149941114386</v>
       </c>
-      <c r="F45" s="31">
+      <c r="F45" s="26">
         <f t="shared" si="5"/>
         <v>276.06497518622785</v>
       </c>
-      <c r="G45" s="31">
+      <c r="G45" s="26">
         <f t="shared" si="5"/>
         <v>43.656443004369621</v>
       </c>
-      <c r="H45" s="32">
+      <c r="H45" s="27">
         <f t="shared" si="5"/>
         <v>67.174191860633741</v>
       </c>
+      <c r="I45" s="18">
+        <f>SUM(C45:H45)</f>
+        <v>1741.1139747425354</v>
+      </c>
+      <c r="J45" s="34"/>
     </row>
   </sheetData>
-  <sortState ref="K31:P35">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="K31:P35">
     <sortCondition ref="K31:K35" customList="Chronic Lung Disease,Heart Disease,HIV,Cancer,Diabetes"/>
   </sortState>
   <mergeCells count="12">
-    <mergeCell ref="A39:A45"/>
-    <mergeCell ref="A32:A38"/>
-    <mergeCell ref="A25:A31"/>
-    <mergeCell ref="A18:A24"/>
-    <mergeCell ref="A11:A17"/>
+    <mergeCell ref="N11:S11"/>
     <mergeCell ref="N2:P2"/>
     <mergeCell ref="Q2:S2"/>
     <mergeCell ref="A4:A10"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="F2:H2"/>
     <mergeCell ref="N4:S4"/>
-    <mergeCell ref="N11:S11"/>
+    <mergeCell ref="A39:A45"/>
+    <mergeCell ref="A32:A38"/>
+    <mergeCell ref="A25:A31"/>
+    <mergeCell ref="A18:A24"/>
+    <mergeCell ref="A11:A17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2933,14 +2965,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8F5D43C-818E-403F-9BE1-B50E284E57A9}">
   <dimension ref="A2:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:H6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.7109375" bestFit="1" customWidth="1"/>
@@ -2970,7 +3002,7 @@
       <c r="G3" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="H3" s="33" t="s">
+      <c r="H3" s="28" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2990,53 +3022,53 @@
       <c r="A5" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="29">
+      <c r="B5" s="24">
         <f>SUM(C5:H5)</f>
         <v>804576.7193</v>
       </c>
-      <c r="C5" s="29">
+      <c r="C5" s="24">
         <v>121080.3</v>
       </c>
-      <c r="D5" s="29">
+      <c r="D5" s="24">
         <v>252682</v>
       </c>
-      <c r="E5" s="29">
+      <c r="E5" s="24">
         <v>159111.1</v>
       </c>
-      <c r="F5" s="29">
+      <c r="F5" s="24">
         <v>258249.2</v>
       </c>
-      <c r="G5" s="29">
+      <c r="G5" s="24">
         <v>12957.19</v>
       </c>
-      <c r="H5" s="30">
+      <c r="H5" s="25">
         <v>496.92930000000001</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="27" t="s">
+      <c r="A6" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="31">
+      <c r="B6" s="26">
         <f>SUM(C6:H6)</f>
         <v>1451489.5466780681</v>
       </c>
-      <c r="C6" s="31">
+      <c r="C6" s="26">
         <v>185347.64900000003</v>
       </c>
-      <c r="D6" s="31">
+      <c r="D6" s="26">
         <v>572599.29812936857</v>
       </c>
-      <c r="E6" s="31">
+      <c r="E6" s="26">
         <v>350331.31073720747</v>
       </c>
-      <c r="F6" s="31">
+      <c r="F6" s="26">
         <v>303774.38384816016</v>
       </c>
-      <c r="G6" s="31">
+      <c r="G6" s="26">
         <v>38165.97229025868</v>
       </c>
-      <c r="H6" s="32">
+      <c r="H6" s="27">
         <v>1270.9326730732128</v>
       </c>
     </row>
